--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -12,20 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S.No.</t>
   </si>
   <si>
     <t>Product Names</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Product Price</t>
@@ -375,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -387,10 +383,9 @@
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,21 +393,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>529</v>
@@ -421,12 +413,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>399</v>
@@ -435,12 +427,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>699</v>
@@ -449,12 +441,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>499</v>
